--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,43 +40,49 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
@@ -85,133 +91,124 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increased</t>
   </si>
 </sst>
 </file>
@@ -569,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -688,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8321917808219178</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -838,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -888,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7027027027027027</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8955613577023499</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>343</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8928571428571429</v>
+        <v>0.8929503916449086</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5925925925925926</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8846153846153846</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5490196078431373</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8793103448275862</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5387596899224806</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C12">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D12">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8787878787878788</v>
+        <v>0.875</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4406779661016949</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8773584905660378</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.32</v>
+        <v>0.4161073825503356</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1206,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.8723404255319149</v>
+        <v>0.86875</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,210 +1235,258 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2818791946308725</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.8658536585365854</v>
+      </c>
+      <c r="L15">
+        <v>71</v>
+      </c>
+      <c r="M15">
+        <v>71</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.3466666666666667</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>49</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="L16">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>231</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L18">
+        <v>31</v>
+      </c>
+      <c r="M18">
+        <v>31</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.8584905660377359</v>
+      </c>
+      <c r="L19">
+        <v>91</v>
+      </c>
+      <c r="M19">
+        <v>91</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.8125</v>
+      </c>
+      <c r="L20">
+        <v>39</v>
+      </c>
+      <c r="M20">
+        <v>39</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15">
-        <v>42</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>107</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15">
-        <v>0.8625</v>
-      </c>
-      <c r="L15">
-        <v>138</v>
-      </c>
-      <c r="M15">
-        <v>138</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L16">
-        <v>31</v>
-      </c>
-      <c r="M16">
-        <v>31</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17">
-        <v>0.8604651162790697</v>
-      </c>
-      <c r="L17">
-        <v>37</v>
-      </c>
-      <c r="M17">
-        <v>37</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18">
-        <v>0.8591549295774648</v>
-      </c>
-      <c r="L18">
-        <v>122</v>
-      </c>
-      <c r="M18">
-        <v>122</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L19">
-        <v>70</v>
-      </c>
-      <c r="M19">
-        <v>70</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="K21">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L21">
+        <v>51</v>
+      </c>
+      <c r="M21">
+        <v>51</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20">
-        <v>0.8515625</v>
-      </c>
-      <c r="L20">
-        <v>109</v>
-      </c>
-      <c r="M20">
-        <v>109</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>22</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
+    <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>0.8</v>
@@ -1465,18 +1510,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="10:17">
+    <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.7916666666666666</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1488,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.775</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1514,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1540,12 +1585,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>0.75</v>
@@ -1569,18 +1614,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="10:17">
+    <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>0.75</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1592,38 +1637,38 @@
         <v>0</v>
       </c>
       <c r="Q27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L28">
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
+    <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K29">
         <v>0.7382352941176471</v>
@@ -1647,18 +1692,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="10:17">
+    <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.7301587301587301</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1670,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.7142857142857143</v>
+        <v>0.7040816326530612</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1693,24 +1738,24 @@
         <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.7142857142857143</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1722,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.7078651685393258</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L33">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M33">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1748,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.7071129707112971</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L34">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1774,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.6915254237288135</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L35">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1800,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.6914893617021277</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L36">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M36">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1826,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.6363636363636364</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1852,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.6274509803921569</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1878,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.6153846153846154</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L39">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1904,47 +1949,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.5609756097560976</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L40">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N40">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.5333333333333333</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L41">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1956,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.4615384615384616</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1982,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.3835616438356164</v>
+        <v>0.328125</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2008,85 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44">
-        <v>0.359375</v>
-      </c>
-      <c r="L44">
-        <v>23</v>
-      </c>
-      <c r="M44">
-        <v>23</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K45">
-        <v>0.3389830508474576</v>
-      </c>
-      <c r="L45">
-        <v>20</v>
-      </c>
-      <c r="M45">
-        <v>20</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K46">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="L46">
-        <v>21</v>
-      </c>
-      <c r="M46">
-        <v>21</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
